--- a/output/1Y_P92_1VAL-D.xlsx
+++ b/output/1Y_P92_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>593.581</v>
       </c>
-      <c r="G2" s="1">
-        <v>593.581</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.180399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.8469</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.47</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.180399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E3" s="1">
+        <v>593.581</v>
+      </c>
       <c r="F3" s="1">
         <v>589.1398</v>
       </c>
-      <c r="G3" s="1">
-        <v>1182.7208</v>
-      </c>
       <c r="H3" s="1">
-        <v>19971.1871</v>
+        <v>10023.0903</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.9102</v>
+        <v>10023.0903</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8469</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19971.1871</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0012</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E4" s="1">
+        <v>1182.7208</v>
+      </c>
       <c r="F4" s="1">
         <v>565.6525</v>
       </c>
-      <c r="G4" s="1">
-        <v>1748.3733</v>
-      </c>
       <c r="H4" s="1">
-        <v>30748.6406</v>
+        <v>20800.5109</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1588</v>
+        <v>20800.5109</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.9102</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30748.6406</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0259</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E5" s="1">
+        <v>1748.3733</v>
+      </c>
       <c r="F5" s="1">
         <v>562.455</v>
       </c>
-      <c r="G5" s="1">
-        <v>2310.8283</v>
-      </c>
       <c r="H5" s="1">
-        <v>40871.6196</v>
+        <v>30923.4779</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3098</v>
+        <v>30923.4779</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1588</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40871.6196</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E6" s="1">
+        <v>2310.8283</v>
+      </c>
       <c r="F6" s="1">
         <v>555.3859</v>
       </c>
-      <c r="G6" s="1">
-        <v>2866.2141</v>
-      </c>
       <c r="H6" s="1">
-        <v>51340.2006</v>
+        <v>41392.0181</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4446</v>
+        <v>41392.0181</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3098</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51340.2006</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0092</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E7" s="1">
+        <v>2866.2141</v>
+      </c>
       <c r="F7" s="1">
         <v>551.3773</v>
       </c>
-      <c r="G7" s="1">
-        <v>3417.5915</v>
-      </c>
       <c r="H7" s="1">
-        <v>61661.2104</v>
+        <v>51713.095</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5562</v>
+        <v>51713.095</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4446</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61661.2104</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E8" s="1">
+        <v>3417.5915</v>
+      </c>
       <c r="F8" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G8" s="1">
-        <v>3965.2216</v>
-      </c>
       <c r="H8" s="1">
-        <v>72031.4224</v>
+        <v>62083.283</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6535</v>
+        <v>62083.283</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.5562</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72031.4224</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0052</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E9" s="1">
+        <v>3965.2216</v>
+      </c>
       <c r="F9" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>4520.0959</v>
-      </c>
       <c r="H9" s="1">
-        <v>81038.9911</v>
+        <v>71090.87179999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6987</v>
+        <v>71090.87179999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6535</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81038.9911</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0121</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E10" s="1">
+        <v>4520.0959</v>
+      </c>
       <c r="F10" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G10" s="1">
-        <v>5067.0042</v>
-      </c>
       <c r="H10" s="1">
-        <v>92167.7932</v>
+        <v>82219.6401</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.762</v>
+        <v>82219.6401</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6987</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92167.7932</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0124</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.485</v>
       </c>
+      <c r="E11" s="1">
+        <v>5067.0042</v>
+      </c>
       <c r="F11" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G11" s="1">
-        <v>5673.6163</v>
-      </c>
       <c r="H11" s="1">
-        <v>93045.0376</v>
+        <v>83096.8423</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6254</v>
+        <v>83096.8423</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.762</v>
+      </c>
+      <c r="M11" s="1">
         <v>1.538</v>
       </c>
-      <c r="L11" s="1">
-        <v>7013.7472</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-2986.2528</v>
+        <v>6256.7167</v>
       </c>
       <c r="O11" s="1">
-        <v>7013.7472</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100058.7849</v>
+        <v>-3743.2833</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0206</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E12" s="1">
+        <v>5673.6163</v>
+      </c>
       <c r="F12" s="1">
-        <v>795.6218</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6469.2381</v>
+        <v>773.3253999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>109255.0806</v>
+        <v>95818.30130000001</v>
       </c>
       <c r="I12" s="1">
-        <v>113506.8736</v>
+        <v>6256.7167</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5456</v>
+        <v>102075.018</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103128.3584</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.1768</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-13506.8736</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>3506.8736</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112761.9542</v>
+        <v>-13128.3584</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.414</v>
       </c>
+      <c r="E13" s="1">
+        <v>6446.9417</v>
+      </c>
       <c r="F13" s="1">
-        <v>775.633</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7244.8711</v>
+        <v>753.8968</v>
       </c>
       <c r="H13" s="1">
-        <v>125507.9739</v>
+        <v>111684.8834</v>
       </c>
       <c r="I13" s="1">
-        <v>127013.7472</v>
+        <v>3128.3584</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5315</v>
+        <v>114813.2417</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116256.7167</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.0328</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-13506.8736</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>125507.9739</v>
+        <v>-13128.3584</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0224</v>
+        <v>0.0244</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E14" s="1">
+        <v>7200.8384</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7244.8711</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6446.9417</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131073.2617</v>
       </c>
       <c r="I14" s="1">
-        <v>127013.7472</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5315</v>
+        <v>131073.2617</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116256.7167</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1449</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131874.7666</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131874.7666</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131874.7666</v>
+        <v>117350.4557</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0268</v>
+        <v>0.0502</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.8469</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>593.581</v>
       </c>
       <c r="G2" s="1">
-        <v>593.581</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.180399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.8469</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.47</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.180399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.9739</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>593.581</v>
       </c>
       <c r="F3" s="1">
         <v>590.8461</v>
       </c>
       <c r="G3" s="1">
-        <v>1184.4272</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10023.0903</v>
       </c>
       <c r="I3" s="1">
-        <v>20028.9632</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.9103</v>
+        <v>10023.0903</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10028.9632</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8957</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10028.9632</v>
       </c>
-      <c r="O3" s="1">
-        <v>-28.9632</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19971.0368</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0011</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.6787</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1184.4272</v>
       </c>
       <c r="F4" s="1">
         <v>521.3783</v>
       </c>
       <c r="G4" s="1">
-        <v>1705.8054</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20830.5203</v>
       </c>
       <c r="I4" s="1">
-        <v>29246.2533</v>
+        <v>-28.9632</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1451</v>
+        <v>20801.5571</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19246.2533</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.2494</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9217.2901</v>
       </c>
-      <c r="O4" s="1">
-        <v>753.7467</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30753.7467</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0261</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.7792</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1705.8054</v>
       </c>
       <c r="F5" s="1">
         <v>555.7426</v>
       </c>
       <c r="G5" s="1">
-        <v>2261.548</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30170.5805</v>
       </c>
       <c r="I5" s="1">
-        <v>39126.9122</v>
+        <v>753.7467</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3009</v>
+        <v>30924.3272</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29126.9122</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0752</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9880.6589</v>
       </c>
-      <c r="O5" s="1">
-        <v>873.0878</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40873.0878</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0029</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.0055</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2261.548</v>
       </c>
       <c r="F6" s="1">
         <v>529.8455</v>
       </c>
       <c r="G6" s="1">
-        <v>2791.3936</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40509.3006</v>
       </c>
       <c r="I6" s="1">
-        <v>48667.0462</v>
+        <v>873.0878</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4347</v>
+        <v>41382.3884</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38667.0462</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0976</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9540.134</v>
       </c>
-      <c r="O6" s="1">
-        <v>1332.9538</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51332.9538</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.1364</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2791.3936</v>
       </c>
       <c r="F7" s="1">
         <v>534.1248000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3325.5184</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50363.1603</v>
       </c>
       <c r="I7" s="1">
-        <v>58354.147</v>
+        <v>1332.9538</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5474</v>
+        <v>51696.1141</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48354.147</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3226</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9687.1008</v>
       </c>
-      <c r="O7" s="1">
-        <v>1645.853</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61645.853</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0051</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.2605</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3325.5184</v>
       </c>
       <c r="F8" s="1">
         <v>527.8765</v>
       </c>
       <c r="G8" s="1">
-        <v>3853.3948</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60410.7015</v>
       </c>
       <c r="I8" s="1">
-        <v>67993.4354</v>
+        <v>1645.853</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6451</v>
+        <v>62056.5545</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57993.4354</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4389</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9639.288399999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>2006.5646</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72006.5646</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.005</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.0221</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3853.3948</v>
       </c>
       <c r="F9" s="1">
         <v>608.7494</v>
       </c>
       <c r="G9" s="1">
-        <v>4462.1443</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>69085.97470000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78964.37880000001</v>
+        <v>2006.5646</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6965</v>
+        <v>71092.5393</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68964.37880000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.897</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10970.9433</v>
       </c>
-      <c r="O9" s="1">
-        <v>1035.6212</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81035.62119999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0118</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.2846</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4462.1443</v>
       </c>
       <c r="F10" s="1">
         <v>485.6836</v>
       </c>
       <c r="G10" s="1">
-        <v>4947.8279</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>81165.51210000001</v>
       </c>
       <c r="I10" s="1">
-        <v>87844.90949999999</v>
+        <v>1035.6212</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7542</v>
+        <v>82201.1333</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77844.90949999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4456</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8880.530699999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>2155.0905</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92155.09050000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0123</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.485</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4947.8279</v>
       </c>
       <c r="F11" s="1">
         <v>737.3425</v>
       </c>
       <c r="G11" s="1">
-        <v>5685.1704</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93234.52</v>
+        <v>81142.3985</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>2155.0905</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5896</v>
+        <v>83297.489</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M11" s="1">
         <v>1.538</v>
       </c>
-      <c r="L11" s="1">
-        <v>6848.7834</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-5306.3071</v>
+        <v>6176.5001</v>
       </c>
       <c r="O11" s="1">
-        <v>6848.7834</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100083.3033</v>
+        <v>-5978.5904</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0203</v>
+        <v>-0.09660000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.9765</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5685.1704</v>
       </c>
       <c r="F12" s="1">
         <v>828.1761</v>
       </c>
       <c r="G12" s="1">
-        <v>6513.3464</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96013.43120000001</v>
       </c>
       <c r="I12" s="1">
-        <v>114059.5311</v>
+        <v>6176.5001</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5117</v>
+        <v>102189.9314</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104059.5311</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.3037</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-14059.5311</v>
       </c>
-      <c r="O12" s="1">
-        <v>2789.2523</v>
-      </c>
-      <c r="P12" s="1">
-        <v>112789.2523</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.414</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6513.3464</v>
       </c>
       <c r="F13" s="1">
         <v>413.5803</v>
       </c>
       <c r="G13" s="1">
-        <v>6926.9267</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>112835.2597</v>
       </c>
       <c r="I13" s="1">
-        <v>121261.6177</v>
+        <v>2116.969</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5058</v>
+        <v>114952.2287</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111261.6177</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0821</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7202.0866</v>
       </c>
-      <c r="O13" s="1">
-        <v>5587.1657</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125587.1657</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0228</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.2974</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6926.9267</v>
       </c>
       <c r="F14" s="1">
         <v>-6926.9267</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126087.3832</v>
       </c>
       <c r="I14" s="1">
-        <v>121261.6177</v>
+        <v>4914.8824</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5058</v>
+        <v>131002.2656</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111261.6177</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0622</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126087.3832</v>
       </c>
-      <c r="O14" s="1">
-        <v>131674.5489</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131674.5489</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0289</v>
+        <v>0.0484</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.8469</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>593.581</v>
       </c>
       <c r="G2" s="1">
-        <v>593.581</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.180399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.8469</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.47</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.180399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.9739</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>593.581</v>
       </c>
       <c r="F3" s="1">
         <v>589.1398</v>
       </c>
       <c r="G3" s="1">
-        <v>1182.7208</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19971.1871</v>
+        <v>10023.0903</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.9102</v>
+        <v>10023.0903</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8469</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19971.1871</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0012</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.6787</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1182.7208</v>
       </c>
       <c r="F4" s="1">
         <v>531.6279</v>
       </c>
       <c r="G4" s="1">
-        <v>1714.3487</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20800.5109</v>
       </c>
       <c r="I4" s="1">
-        <v>29398.4894</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1485</v>
+        <v>20800.5109</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19398.4894</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.4016</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9398.4894</v>
       </c>
-      <c r="O4" s="1">
-        <v>601.5106</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30751.7606</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.026</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.7792</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1714.3487</v>
       </c>
       <c r="F5" s="1">
         <v>564.2175999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2278.5662</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30321.6849</v>
       </c>
       <c r="I5" s="1">
-        <v>39429.8266</v>
+        <v>601.5106</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3047</v>
+        <v>30923.1955</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29429.8266</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1668</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10031.3372</v>
       </c>
-      <c r="O5" s="1">
-        <v>570.1734</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40871.1746</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0029</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.0055</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2278.5662</v>
       </c>
       <c r="F6" s="1">
         <v>540.8812</v>
       </c>
       <c r="G6" s="1">
-        <v>2819.4474</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40814.1344</v>
       </c>
       <c r="I6" s="1">
-        <v>49168.6627</v>
+        <v>570.1734</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4391</v>
+        <v>41384.3078</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39168.6627</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.19</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9738.8361</v>
       </c>
-      <c r="O6" s="1">
-        <v>831.3373</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51333.8436</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0091</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.1364</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2819.4474</v>
       </c>
       <c r="F7" s="1">
         <v>547.9181</v>
       </c>
       <c r="G7" s="1">
-        <v>3367.3655</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50869.3164</v>
       </c>
       <c r="I7" s="1">
-        <v>59105.9242</v>
+        <v>831.3373</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5526</v>
+        <v>51700.6537</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49105.9242</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4169</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9937.261500000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>894.0758</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61649.0946</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0051</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.2605</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3367.3655</v>
       </c>
       <c r="F8" s="1">
         <v>544.3143</v>
       </c>
       <c r="G8" s="1">
-        <v>3911.6799</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61170.8884</v>
       </c>
       <c r="I8" s="1">
-        <v>69045.3762</v>
+        <v>894.0758</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6511</v>
+        <v>62064.9642</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59045.3762</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.5346</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9939.451999999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>954.6238</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72013.4176</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0051</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.0221</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3911.6799</v>
       </c>
       <c r="F9" s="1">
         <v>607.8439</v>
       </c>
       <c r="G9" s="1">
-        <v>4519.5238</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81028.7338</v>
+        <v>70130.9434</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>954.6238</v>
       </c>
       <c r="J9" s="1">
-        <v>17.701</v>
+        <v>71085.5672</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8951</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10954.6238</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81028.7338</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.012</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.2846</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4519.5238</v>
       </c>
       <c r="F10" s="1">
         <v>528.4239</v>
       </c>
       <c r="G10" s="1">
-        <v>5047.9477</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82209.2334</v>
       </c>
       <c r="I10" s="1">
-        <v>89662.01949999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7621</v>
+        <v>82209.2334</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79662.01949999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6262</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9662.0195</v>
       </c>
-      <c r="O10" s="1">
-        <v>337.9805</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92159.1388</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0124</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.485</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5047.9477</v>
       </c>
       <c r="F11" s="1">
         <v>627.1144</v>
       </c>
       <c r="G11" s="1">
-        <v>5675.062</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93068.7473</v>
+        <v>82784.3224</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>337.9805</v>
       </c>
       <c r="J11" s="1">
-        <v>17.621</v>
+        <v>83122.3029</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.829</v>
+      </c>
+      <c r="M11" s="1">
         <v>1.538</v>
       </c>
-      <c r="L11" s="1">
-        <v>6987.3691</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-3350.6114</v>
+        <v>6255.9248</v>
       </c>
       <c r="O11" s="1">
-        <v>6987.3691</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100056.1165</v>
+        <v>-4082.0557</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0206</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.9765</v>
       </c>
       <c r="E12" s="1">
+        <v>5675.062</v>
+      </c>
+      <c r="F12" s="1">
+        <v>957.5545</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>1003.5852</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6678.6472</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>95842.71769999999</v>
       </c>
       <c r="I12" s="1">
-        <v>117037.3636</v>
+        <v>6255.9248</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5241</v>
+        <v>102098.6425</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106255.9248</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.7233</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-17037.3636</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-49.9944</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112741.671</v>
+        <v>-16255.9248</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0244</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.414</v>
       </c>
       <c r="E13" s="1">
+        <v>6632.6166</v>
+      </c>
+      <c r="F13" s="1">
+        <v>488.0114</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>441.9808</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7120.628</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>114901.4599</v>
       </c>
       <c r="I13" s="1">
-        <v>124734.0177</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5173</v>
+        <v>114901.4599</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114754.1561</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3015</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-7696.6541</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>2253.3515</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>125608.9752</v>
+        <v>-8498.231299999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0234</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.2974</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7120.628</v>
       </c>
       <c r="F14" s="1">
         <v>-7120.628</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129613.2316</v>
       </c>
       <c r="I14" s="1">
-        <v>124734.0177</v>
+        <v>1501.7687</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5173</v>
+        <v>131115.0004</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114754.1561</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1157</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>129613.2316</v>
       </c>
-      <c r="O14" s="1">
-        <v>131866.5831</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131866.5831</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0276</v>
+        <v>0.0497</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.8469</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>593.581</v>
       </c>
       <c r="G2" s="1">
-        <v>593.581</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.180399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.8469</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.47</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.180399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.9739</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>593.581</v>
       </c>
       <c r="F3" s="1">
         <v>589.1398</v>
       </c>
       <c r="G3" s="1">
-        <v>1182.7208</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19971.1871</v>
+        <v>10023.0903</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.9102</v>
+        <v>10023.0903</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8469</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19971.1871</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0012</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.6787</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1182.7208</v>
       </c>
       <c r="F4" s="1">
         <v>540.1994999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1722.9203</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20800.5109</v>
       </c>
       <c r="I4" s="1">
-        <v>29550.0254</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1511</v>
+        <v>20800.5109</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19550.0254</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.5297</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9550.0254</v>
       </c>
-      <c r="O4" s="1">
-        <v>449.9746</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30750.9746</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.026</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.7792</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1722.9203</v>
       </c>
       <c r="F5" s="1">
         <v>572.7776</v>
       </c>
       <c r="G5" s="1">
-        <v>2295.698</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30473.292</v>
       </c>
       <c r="I5" s="1">
-        <v>39733.5534</v>
+        <v>449.9746</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3078</v>
+        <v>30923.2667</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29733.5534</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.2576</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10183.5281</v>
       </c>
-      <c r="O5" s="1">
-        <v>266.4466</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40870.4566</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0029</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.0055</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2295.698</v>
       </c>
       <c r="F6" s="1">
         <v>552.0846</v>
       </c>
       <c r="G6" s="1">
-        <v>2847.7825</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41121.0012</v>
       </c>
       <c r="I6" s="1">
-        <v>49674.1118</v>
+        <v>266.4466</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4431</v>
+        <v>41387.4477</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39674.1118</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2819</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9940.5584</v>
       </c>
-      <c r="O6" s="1">
-        <v>325.8882</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51335.9383</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0092</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.1364</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2847.7825</v>
       </c>
       <c r="F7" s="1">
         <v>561.9906999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3409.7732</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51380.5466</v>
       </c>
       <c r="I7" s="1">
-        <v>59866.5992</v>
+        <v>325.8882</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5574</v>
+        <v>51706.4348</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49866.5992</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.5107</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10192.4873</v>
       </c>
-      <c r="O7" s="1">
-        <v>133.4008</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61653.5514</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.2605</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3409.7732</v>
       </c>
       <c r="F8" s="1">
         <v>554.9356</v>
       </c>
       <c r="G8" s="1">
-        <v>3964.7087</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72022.106</v>
+        <v>61941.2576</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>133.4008</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6558</v>
+        <v>62074.6584</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.5965</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10133.4008</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72022.106</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0051</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.0221</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3964.7087</v>
       </c>
       <c r="F9" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4519.583</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81029.79640000001</v>
+        <v>71081.6771</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7007</v>
+        <v>71081.6771</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6558</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81029.79640000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0121</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.2846</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4519.583</v>
       </c>
       <c r="F10" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5066.4914</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>92158.4645</v>
+        <v>82210.3115</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7638</v>
+        <v>82210.3115</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7007</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92158.4645</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0124</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.485</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5066.4914</v>
       </c>
       <c r="F11" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5673.1034</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93036.62699999999</v>
+        <v>83088.4317</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.627</v>
+        <v>83088.4317</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.7638</v>
+      </c>
+      <c r="M11" s="1">
         <v>1.538</v>
       </c>
-      <c r="L11" s="1">
-        <v>7013.0373</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-2986.9627</v>
+        <v>6256.0068</v>
       </c>
       <c r="O11" s="1">
-        <v>7013.0373</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100049.6644</v>
+        <v>-3743.9932</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0206</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.9765</v>
       </c>
       <c r="E12" s="1">
+        <v>5673.1034</v>
+      </c>
+      <c r="F12" s="1">
+        <v>957.5594</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>1002.1522</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6675.2557</v>
-      </c>
       <c r="H12" s="1">
-        <v>112734.3877</v>
+        <v>95809.64</v>
       </c>
       <c r="I12" s="1">
-        <v>117013.0373</v>
+        <v>6256.0068</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5294</v>
+        <v>102065.6468</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106256.0068</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.7298</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-17013.0373</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112734.3877</v>
+        <v>-16256.0068</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0244</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.414</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6630.6628</v>
       </c>
       <c r="F13" s="1">
         <v>574.2506</v>
       </c>
       <c r="G13" s="1">
-        <v>7249.5063</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>125588.2717</v>
+        <v>114867.6134</v>
       </c>
       <c r="I13" s="1">
-        <v>127013.0373</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5202</v>
+        <v>114867.6134</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116256.0068</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5331</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125588.2717</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0233</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>18.2974</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7204.9134</v>
       </c>
       <c r="F14" s="1">
-        <v>-7249.5063</v>
+        <v>-7204.9134</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131147.4365</v>
       </c>
       <c r="I14" s="1">
-        <v>127013.0373</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5202</v>
+        <v>131147.4365</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116256.0068</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1357</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131959.1378</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131959.1378</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131959.1378</v>
+        <v>131147.4365</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0268</v>
+        <v>0.0503</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.8469</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>593.581</v>
       </c>
       <c r="G2" s="1">
-        <v>593.581</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.180399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.8469</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.47</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.180399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.9739</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>593.581</v>
       </c>
       <c r="F3" s="1">
         <v>589.1398</v>
       </c>
       <c r="G3" s="1">
-        <v>1182.7208</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19971.1871</v>
+        <v>10023.0903</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.9102</v>
+        <v>10023.0903</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8469</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19971.1871</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0012</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.6787</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1182.7208</v>
       </c>
       <c r="F4" s="1">
         <v>548.7996000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1731.5204</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20800.5109</v>
       </c>
       <c r="I4" s="1">
-        <v>29702.064</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1537</v>
+        <v>20800.5109</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19702.064</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.6583</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9702.064</v>
       </c>
-      <c r="O4" s="1">
-        <v>297.936</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30750.186</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.026</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.7792</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1731.5204</v>
       </c>
       <c r="F5" s="1">
         <v>581.4232</v>
       </c>
       <c r="G5" s="1">
-        <v>2312.9436</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0338</v>
+        <v>30625.402</v>
       </c>
       <c r="I5" s="1">
-        <v>40039.3029</v>
+        <v>297.936</v>
       </c>
       <c r="J5" s="1">
-        <v>17.311</v>
+        <v>30923.338</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30039.3029</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3485</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10337.2389</v>
       </c>
-      <c r="O5" s="1">
-        <v>-39.3029</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40869.7308</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0029</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.0055</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2312.9436</v>
       </c>
       <c r="F6" s="1">
         <v>553.203</v>
       </c>
       <c r="G6" s="1">
-        <v>2866.1466</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51338.9919</v>
+        <v>41429.9087</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-39.3029</v>
       </c>
       <c r="J6" s="1">
-        <v>17.445</v>
+        <v>41390.6057</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.294</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9960.697099999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51338.9919</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0092</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.1364</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2866.1466</v>
       </c>
       <c r="F7" s="1">
         <v>551.3773</v>
       </c>
       <c r="G7" s="1">
-        <v>3417.524</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61659.993</v>
+        <v>51711.8776</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5566</v>
+        <v>51711.8776</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.445</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61659.993</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.2605</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3417.524</v>
       </c>
       <c r="F8" s="1">
         <v>547.6301</v>
       </c>
       <c r="G8" s="1">
-        <v>3965.1541</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72030.1966</v>
+        <v>62082.0572</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6538</v>
+        <v>62082.0572</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.5566</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72030.1966</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0052</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.0221</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3965.1541</v>
       </c>
       <c r="F9" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4520.0284</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81037.7813</v>
+        <v>71089.662</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.699</v>
+        <v>71089.662</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6538</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81037.7813</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0121</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.2846</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4520.0284</v>
       </c>
       <c r="F10" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5066.9367</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>92166.5658</v>
+        <v>82218.4127</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7622</v>
+        <v>82218.4127</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.699</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92166.5658</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0124</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.485</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5066.9367</v>
       </c>
       <c r="F11" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5673.5488</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93043.931</v>
+        <v>83095.7357</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6257</v>
+        <v>83095.7357</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.7622</v>
+      </c>
+      <c r="M11" s="1">
         <v>1.538</v>
       </c>
-      <c r="L11" s="1">
-        <v>7013.6538</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-2986.3462</v>
+        <v>6256.6233</v>
       </c>
       <c r="O11" s="1">
-        <v>7013.6538</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100057.5848</v>
+        <v>-3743.3767</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0206</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.9765</v>
       </c>
       <c r="E12" s="1">
+        <v>5673.5488</v>
+      </c>
+      <c r="F12" s="1">
+        <v>957.5957</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>1002.1885</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6675.7373</v>
-      </c>
       <c r="H12" s="1">
-        <v>112742.5227</v>
+        <v>95817.16160000001</v>
       </c>
       <c r="I12" s="1">
-        <v>117013.6538</v>
+        <v>6256.6233</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5282</v>
+        <v>102073.785</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106256.6233</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.7284</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-17013.6538</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112742.5227</v>
+        <v>-16256.6233</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0244</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.414</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6631.1445</v>
       </c>
       <c r="F13" s="1">
         <v>574.2506</v>
       </c>
       <c r="G13" s="1">
-        <v>7249.988</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>125596.6163</v>
+        <v>114875.958</v>
       </c>
       <c r="I13" s="1">
-        <v>127013.6538</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5192</v>
+        <v>114875.958</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116256.6233</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5319</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125596.6163</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0233</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.2974</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7205.3951</v>
       </c>
       <c r="F14" s="1">
-        <v>-7249.988</v>
+        <v>-7205.3951</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131156.2044</v>
       </c>
       <c r="I14" s="1">
-        <v>127013.6538</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5192</v>
+        <v>131156.2044</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116256.6233</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1347</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131967.9057</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131967.9057</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131967.9057</v>
+        <v>131156.2044</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0268</v>
+        <v>0.0503</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.2481</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5315</v>
+        <v>16.1449</v>
       </c>
       <c r="D3" s="1">
-        <v>17.5058</v>
+        <v>16.0622</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5173</v>
+        <v>16.1157</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5202</v>
+        <v>16.1357</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5192</v>
+        <v>16.1347</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.091</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0495</v>
+        <v>0.1411</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0481</v>
+        <v>0.1404</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0494</v>
+        <v>0.1413</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0501</v>
+        <v>0.1416</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0502</v>
+        <v>0.1418</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1248</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0563</v>
+        <v>0.1505</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0574</v>
+        <v>0.1477</v>
       </c>
       <c r="E5" s="3">
-        <v>0.057</v>
+        <v>0.1501</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0565</v>
+        <v>0.1506</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0565</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.5661</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5184</v>
+        <v>0.8022</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4833</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5111</v>
+        <v>0.8058</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5272</v>
+        <v>0.8051</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5296</v>
+        <v>0.8062</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1902</v>
+        <v>-0.041</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1906</v>
+        <v>0.1788</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1908</v>
+        <v>0.1781</v>
       </c>
       <c r="F7" s="3">
-        <v>0.191</v>
+        <v>0.1776</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1909</v>
+        <v>0.1775</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7013.7472</v>
+        <v>6256.7167</v>
       </c>
       <c r="D8" s="1">
-        <v>6848.7834</v>
+        <v>6176.5001</v>
       </c>
       <c r="E8" s="1">
-        <v>6987.3691</v>
+        <v>6255.9248</v>
       </c>
       <c r="F8" s="1">
-        <v>7013.0373</v>
+        <v>6256.0068</v>
       </c>
       <c r="G8" s="1">
-        <v>7013.6538</v>
+        <v>6256.6233</v>
       </c>
     </row>
   </sheetData>
